--- a/Gender2022.xlsx
+++ b/Gender2022.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -42,13 +42,13 @@
     <t>Democrats</t>
   </si>
   <si>
-    <t>Echelon</t>
+    <t>FoxNews</t>
   </si>
   <si>
     <t>Republican</t>
   </si>
   <si>
-    <t>FoxNews</t>
+    <t>Echelon</t>
   </si>
   <si>
     <t>Monmouth</t>
@@ -66,10 +66,7 @@
     <t xml:space="preserve">Democrat </t>
   </si>
   <si>
-    <t>AVG_Ballot</t>
-  </si>
-  <si>
-    <t>AVG_WMN</t>
+    <t>Congress</t>
   </si>
   <si>
     <t>Republicans</t>
@@ -415,10 +412,10 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>44795.0</v>
+        <v>44816.0</v>
       </c>
       <c r="B2" s="1">
-        <v>51.0</v>
+        <v>48.0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -427,17 +424,17 @@
         <v>9</v>
       </c>
       <c r="E2" s="1">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
-        <v>44795.0</v>
+        <v>44816.0</v>
       </c>
       <c r="B3" s="1">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -446,17 +443,17 @@
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>44782.0</v>
+        <v>44795.0</v>
       </c>
       <c r="B4" s="1">
-        <v>45.0</v>
+        <v>51.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -465,22 +462,14 @@
         <v>11</v>
       </c>
       <c r="E4" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" ref="F4:F5" si="1">AVERAGE(B4,B6)</f>
-        <v>46</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45.0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>46.0</v>
-      </c>
+        <v>48.0</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>44782.0</v>
+        <v>44795.0</v>
       </c>
       <c r="B5" s="1">
         <v>39.0</v>
@@ -492,105 +481,113 @@
         <v>11</v>
       </c>
       <c r="E5" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>44782.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
         <v>41.0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F7" si="1">AVERAGE(B6,B8)</f>
+        <v>46</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>44782.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G7" s="2">
         <v>43.5</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H7" s="2">
         <v>38.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
+    <row r="8">
+      <c r="A8" s="3">
         <v>44776.0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="1">
         <v>47.0</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E8" s="1">
         <v>49.0</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" ref="F6:F7" si="2">AVERAGE(B6,B10)</f>
+      <c r="F8" s="4">
+        <f t="shared" ref="F8:F9" si="2">AVERAGE(B8,B12)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
+    <row r="9">
+      <c r="A9" s="3">
         <v>44776.0</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" s="1">
         <v>37.0</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E9" s="1">
         <v>46.0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F9" s="4">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>44760.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>44760.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>44755.0</v>
+        <v>44760.0</v>
       </c>
       <c r="B10" s="1">
-        <v>43.0</v>
+        <v>54.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -599,25 +596,17 @@
         <v>11</v>
       </c>
       <c r="E10" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" ref="F10:F11" si="3">AVERAGE(B10,B12)</f>
-        <v>48</v>
-      </c>
-      <c r="G10" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43.0</v>
-      </c>
+        <v>48.0</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>44755.0</v>
+        <v>44760.0</v>
       </c>
       <c r="B11" s="1">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -628,108 +617,120 @@
       <c r="E11" s="1">
         <v>44.0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>44755.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" ref="F12:F13" si="3">AVERAGE(B12,B14)</f>
+        <v>48</v>
+      </c>
+      <c r="G12" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>44755.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="F13" s="4">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G13" s="2">
         <v>43.0</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H13" s="2">
         <v>41.0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3">
+    <row r="14">
+      <c r="A14" s="3">
         <v>44739.0</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B14" s="1">
         <v>53.0</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E14" s="1">
         <v>46.0</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" ref="F12:F13" si="4">AVERAGE(B12,B16)</f>
+      <c r="F14" s="4">
+        <f t="shared" ref="F14:F15" si="4">AVERAGE(B14,B18)</f>
         <v>51.5</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G14" s="2">
         <v>45.0</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H14" s="2">
         <v>51.5</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3">
+    <row r="15">
+      <c r="A15" s="3">
         <v>44739.0</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B15" s="1">
         <v>39.0</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E15" s="1">
         <v>48.0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F15" s="4">
         <f t="shared" si="4"/>
         <v>40.5</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G15" s="2">
         <v>47.5</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H15" s="2">
         <v>40.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>44732.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3">
-        <v>44732.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1">
-        <v>46.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>44725.0</v>
+        <v>44732.0</v>
       </c>
       <c r="B16" s="1">
         <v>50.0</v>
@@ -741,19 +742,15 @@
         <v>11</v>
       </c>
       <c r="E16" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" ref="F16:F17" si="5">AVERAGE(B16,B20)</f>
-        <v>50</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>44725.0</v>
+        <v>44732.0</v>
       </c>
       <c r="B17" s="1">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -762,344 +759,368 @@
         <v>11</v>
       </c>
       <c r="E17" s="1">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>44725.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" ref="F18:F19" si="5">AVERAGE(B18,B22)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>44725.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
         <v>47.0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F19" s="4">
         <f t="shared" si="5"/>
         <v>43.5</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3">
-        <v>44704.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3">
-        <v>44704.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>44690.0</v>
+        <v>44704.0</v>
       </c>
       <c r="B20" s="1">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" ref="F20:F29" si="6">AVERAGE(B20,B22)</f>
-        <v>46</v>
-      </c>
-      <c r="G20" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>46.0</v>
-      </c>
+        <v>45.0</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>44690.0</v>
+        <v>44704.0</v>
       </c>
       <c r="B21" s="1">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3">
+        <v>44690.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" ref="F22:F31" si="6">AVERAGE(B22,B24)</f>
+        <v>46</v>
+      </c>
+      <c r="G22" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3">
+        <v>44690.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1">
         <v>50.0</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F23" s="4">
         <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G23" s="2">
         <v>48.0</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H23" s="2">
         <v>44.0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3">
+    <row r="24">
+      <c r="A24" s="3">
         <v>44682.0</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B24" s="1">
         <v>42.0</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1">
         <v>39.0</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F24" s="4">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3">
+    <row r="25">
+      <c r="A25" s="3">
         <v>44682.0</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B25" s="1">
         <v>43.0</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1">
         <v>46.0</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F25" s="4">
         <f t="shared" si="6"/>
         <v>42.5</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3">
+    <row r="26">
+      <c r="A26" s="3">
         <v>44641.0</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B26" s="1">
         <v>42.0</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
         <v>41.0</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F26" s="4">
         <f t="shared" si="6"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3">
+    <row r="27">
+      <c r="A27" s="3">
         <v>44641.0</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B27" s="1">
         <v>42.0</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1">
         <v>43.0</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F27" s="4">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3">
+    <row r="28">
+      <c r="A28" s="3">
         <v>44634.0</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B28" s="1">
         <v>53.0</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E28" s="1">
         <v>46.0</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F28" s="4">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G28" s="2">
         <v>43.5</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H28" s="2">
         <v>47.5</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3">
+    <row r="29">
+      <c r="A29" s="3">
         <v>44634.0</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B29" s="1">
         <v>42.0</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E29" s="1">
         <v>46.0</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F29" s="4">
         <f t="shared" si="6"/>
         <v>43.5</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G29" s="2">
         <v>44.5</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H29" s="2">
         <v>42.0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3">
+    <row r="30">
+      <c r="A30" s="3">
         <v>44585.0</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B30" s="1">
         <v>47.0</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E30" s="1">
         <v>43.0</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F30" s="4">
         <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G30" s="2">
         <v>43.0</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H30" s="2">
         <v>47.0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3">
+    <row r="31">
+      <c r="A31" s="3">
         <v>44585.0</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B31" s="1">
         <v>45.0</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E31" s="1">
         <v>50.0</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F31" s="4">
         <f t="shared" si="6"/>
         <v>41.5</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G31" s="2">
         <v>50.0</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H31" s="2">
         <v>45.0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3">
+    <row r="32">
+      <c r="A32" s="3">
         <v>44584.0</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B32" s="1">
         <v>47.0</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1">
         <v>46.0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3">
+    <row r="33">
+      <c r="A33" s="3">
         <v>44584.0</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B33" s="1">
         <v>38.0</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1">
         <v>41.0</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="5"/>
@@ -7953,6 +7974,20 @@
       <c r="C1012" s="5"/>
       <c r="D1012" s="5"/>
       <c r="E1012" s="5"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="5"/>
+      <c r="B1013" s="5"/>
+      <c r="C1013" s="5"/>
+      <c r="D1013" s="5"/>
+      <c r="E1013" s="5"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="5"/>
+      <c r="B1014" s="5"/>
+      <c r="C1014" s="5"/>
+      <c r="D1014" s="5"/>
+      <c r="E1014" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -17125,188 +17160,204 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8">
-        <v>44795.0</v>
+        <v>44816.0</v>
       </c>
       <c r="B2" s="9">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>47.7</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8">
-        <v>44795.0</v>
+        <v>44816.0</v>
       </c>
       <c r="B3" s="9">
-        <v>43.7</v>
+        <v>41.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8">
-        <v>44760.0</v>
+        <v>44795.0</v>
       </c>
       <c r="B4" s="9">
-        <v>44.5</v>
+        <v>46.0</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>48.5</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8">
+        <v>44795.0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>43.7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
         <v>44760.0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B6" s="9">
+        <v>44.5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>44760.0</v>
+      </c>
+      <c r="B7" s="9">
         <v>44.0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
         <v>39.5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="11">
+    <row r="8">
+      <c r="A8" s="11">
         <v>44739.0</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B8" s="9">
         <v>45.7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11">
-        <v>44739.0</v>
-      </c>
-      <c r="B7" s="9">
-        <v>47.0</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1">
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>44704.0</v>
-      </c>
-      <c r="B8" s="9">
-        <v>42.3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11">
+        <v>44739.0</v>
+      </c>
+      <c r="B9" s="9">
         <v>47.0</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
         <v>44704.0</v>
       </c>
-      <c r="B9" s="9">
-        <v>47.3</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1">
-        <v>42.7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11">
-        <v>44641.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43.5</v>
+      <c r="B10" s="9">
+        <v>42.3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>47.5</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11">
-        <v>44641.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44.5</v>
+      <c r="A11" s="3">
+        <v>44704.0</v>
+      </c>
+      <c r="B11" s="9">
+        <v>47.3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
-        <v>42.0</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11">
-        <v>44585.0</v>
-      </c>
-      <c r="B12" s="9">
-        <v>44.5</v>
+        <v>44641.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43.5</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>47.0</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11">
+        <v>44641.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11">
         <v>44585.0</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B14" s="9">
+        <v>44.5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11">
+        <v>44585.0</v>
+      </c>
+      <c r="B15" s="9">
         <v>45.5</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
         <v>41.5</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="5"/>
@@ -23182,6 +23233,18 @@
       <c r="C994" s="5"/>
       <c r="D994" s="5"/>
     </row>
+    <row r="995">
+      <c r="A995" s="5"/>
+      <c r="B995" s="5"/>
+      <c r="C995" s="5"/>
+      <c r="D995" s="5"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="5"/>
+      <c r="B996" s="5"/>
+      <c r="C996" s="5"/>
+      <c r="D996" s="5"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Gender2022.xlsx
+++ b/Gender2022.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -42,10 +42,13 @@
     <t>Democrats</t>
   </si>
   <si>
-    <t>FoxNews</t>
+    <t>NYT</t>
   </si>
   <si>
     <t>Republican</t>
+  </si>
+  <si>
+    <t>FoxNews</t>
   </si>
   <si>
     <t>Echelon</t>
@@ -412,10 +415,10 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>44816.0</v>
+        <v>44818.0</v>
       </c>
       <c r="B2" s="1">
-        <v>48.0</v>
+        <v>53.0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -424,17 +427,17 @@
         <v>9</v>
       </c>
       <c r="E2" s="1">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
-        <v>44816.0</v>
+        <v>44818.0</v>
       </c>
       <c r="B3" s="1">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -443,17 +446,17 @@
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>44795.0</v>
+        <v>44816.0</v>
       </c>
       <c r="B4" s="1">
-        <v>51.0</v>
+        <v>48.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -462,17 +465,17 @@
         <v>11</v>
       </c>
       <c r="E4" s="1">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>44795.0</v>
+        <v>44816.0</v>
       </c>
       <c r="B5" s="1">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -481,41 +484,33 @@
         <v>11</v>
       </c>
       <c r="E5" s="1">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>44782.0</v>
+        <v>44795.0</v>
       </c>
       <c r="B6" s="1">
-        <v>45.0</v>
+        <v>51.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" ref="F6:F7" si="1">AVERAGE(B6,B8)</f>
-        <v>46</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45.0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>46.0</v>
-      </c>
+        <v>48.0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>44782.0</v>
+        <v>44795.0</v>
       </c>
       <c r="B7" s="1">
         <v>39.0</v>
@@ -524,247 +519,259 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>44782.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
         <v>41.0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="4">
+        <f t="shared" ref="F8:F9" si="1">AVERAGE(B8,B10)</f>
+        <v>46</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>44782.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G9" s="2">
         <v>43.5</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H9" s="2">
         <v>38.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3">
+    <row r="10">
+      <c r="A10" s="3">
         <v>44776.0</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B10" s="1">
         <v>47.0</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1">
         <v>49.0</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" ref="F8:F9" si="2">AVERAGE(B8,B12)</f>
+      <c r="F10" s="4">
+        <f t="shared" ref="F10:F11" si="2">AVERAGE(B10,B14)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3">
+    <row r="11">
+      <c r="A11" s="3">
         <v>44776.0</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B11" s="1">
         <v>37.0</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1">
         <v>46.0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F11" s="4">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>44760.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>44760.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>44755.0</v>
+        <v>44760.0</v>
       </c>
       <c r="B12" s="1">
-        <v>43.0</v>
+        <v>54.0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" ref="F12:F13" si="3">AVERAGE(B12,B14)</f>
-        <v>48</v>
-      </c>
-      <c r="G12" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>43.0</v>
-      </c>
+        <v>48.0</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>44755.0</v>
+        <v>44760.0</v>
       </c>
       <c r="B13" s="1">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1">
         <v>44.0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>44755.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ref="F14:F15" si="3">AVERAGE(B14,B16)</f>
+        <v>48</v>
+      </c>
+      <c r="G14" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>44755.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="F15" s="4">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G15" s="2">
         <v>43.0</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H15" s="2">
         <v>41.0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3">
+    <row r="16">
+      <c r="A16" s="3">
         <v>44739.0</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B16" s="1">
         <v>53.0</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1">
         <v>46.0</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" ref="F14:F15" si="4">AVERAGE(B14,B18)</f>
+      <c r="F16" s="4">
+        <f t="shared" ref="F16:F17" si="4">AVERAGE(B16,B20)</f>
         <v>51.5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G16" s="2">
         <v>45.0</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H16" s="2">
         <v>51.5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3">
+    <row r="17">
+      <c r="A17" s="3">
         <v>44739.0</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B17" s="1">
         <v>39.0</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
         <v>48.0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F17" s="4">
         <f t="shared" si="4"/>
         <v>40.5</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G17" s="2">
         <v>47.5</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H17" s="2">
         <v>40.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3">
-        <v>44732.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3">
-        <v>44732.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1">
-        <v>46.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>44725.0</v>
+        <v>44732.0</v>
       </c>
       <c r="B18" s="1">
         <v>50.0</v>
@@ -773,81 +780,77 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" ref="F18:F19" si="5">AVERAGE(B18,B22)</f>
-        <v>50</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>44725.0</v>
+        <v>44732.0</v>
       </c>
       <c r="B19" s="1">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>44725.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" ref="F20:F21" si="5">AVERAGE(B20,B24)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>44725.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
         <v>47.0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F21" s="4">
         <f t="shared" si="5"/>
         <v>43.5</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3">
-        <v>44704.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3">
-        <v>44704.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>44690.0</v>
+        <v>44704.0</v>
       </c>
       <c r="B22" s="1">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -856,25 +859,17 @@
         <v>12</v>
       </c>
       <c r="E22" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" ref="F22:F31" si="6">AVERAGE(B22,B24)</f>
-        <v>46</v>
-      </c>
-      <c r="G22" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>46.0</v>
-      </c>
+        <v>45.0</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>44690.0</v>
+        <v>44704.0</v>
       </c>
       <c r="B23" s="1">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -883,258 +878,290 @@
         <v>12</v>
       </c>
       <c r="E23" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3">
+        <v>44690.0</v>
+      </c>
+      <c r="B24" s="1">
         <v>50.0</v>
       </c>
-      <c r="F23" s="4">
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" ref="F24:F33" si="6">AVERAGE(B24,B26)</f>
+        <v>46</v>
+      </c>
+      <c r="G24" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3">
+        <v>44690.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F25" s="4">
         <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G25" s="2">
         <v>48.0</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H25" s="2">
         <v>44.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3">
+    <row r="26">
+      <c r="A26" s="3">
         <v>44682.0</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B26" s="1">
         <v>42.0</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1">
         <v>39.0</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F26" s="4">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3">
+    <row r="27">
+      <c r="A27" s="3">
         <v>44682.0</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B27" s="1">
         <v>43.0</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1">
         <v>46.0</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F27" s="4">
         <f t="shared" si="6"/>
         <v>42.5</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3">
+    <row r="28">
+      <c r="A28" s="3">
         <v>44641.0</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B28" s="1">
         <v>42.0</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1">
         <v>41.0</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F28" s="4">
         <f t="shared" si="6"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3">
+    <row r="29">
+      <c r="A29" s="3">
         <v>44641.0</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B29" s="1">
         <v>42.0</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1">
         <v>43.0</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F29" s="4">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3">
+    <row r="30">
+      <c r="A30" s="3">
         <v>44634.0</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B30" s="1">
         <v>53.0</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1">
         <v>46.0</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F30" s="4">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G30" s="2">
         <v>43.5</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H30" s="2">
         <v>47.5</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3">
+    <row r="31">
+      <c r="A31" s="3">
         <v>44634.0</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B31" s="1">
         <v>42.0</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1">
         <v>46.0</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F31" s="4">
         <f t="shared" si="6"/>
         <v>43.5</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G31" s="2">
         <v>44.5</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H31" s="2">
         <v>42.0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3">
+    <row r="32">
+      <c r="A32" s="3">
         <v>44585.0</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B32" s="1">
         <v>47.0</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1">
         <v>43.0</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F32" s="4">
         <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G32" s="2">
         <v>43.0</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H32" s="2">
         <v>47.0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3">
+    <row r="33">
+      <c r="A33" s="3">
         <v>44585.0</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B33" s="1">
         <v>45.0</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1">
         <v>50.0</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F33" s="4">
         <f t="shared" si="6"/>
         <v>41.5</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G33" s="2">
         <v>50.0</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H33" s="2">
         <v>45.0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3">
+    <row r="34">
+      <c r="A34" s="3">
         <v>44584.0</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B34" s="1">
         <v>47.0</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1">
         <v>46.0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3">
+    <row r="35">
+      <c r="A35" s="3">
         <v>44584.0</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B35" s="1">
         <v>38.0</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1">
         <v>41.0</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="5"/>
@@ -7988,6 +8015,20 @@
       <c r="C1014" s="5"/>
       <c r="D1014" s="5"/>
       <c r="E1014" s="5"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="5"/>
+      <c r="B1015" s="5"/>
+      <c r="C1015" s="5"/>
+      <c r="D1015" s="5"/>
+      <c r="E1015" s="5"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="5"/>
+      <c r="B1016" s="5"/>
+      <c r="C1016" s="5"/>
+      <c r="D1016" s="5"/>
+      <c r="E1016" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8009,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -8018,10 +8059,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -8033,7 +8074,7 @@
         <v>0.53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="6">
         <v>0.46</v>
@@ -8054,7 +8095,7 @@
         <v>0.49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6">
         <v>0.44</v>
@@ -8075,7 +8116,7 @@
         <v>0.48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="6">
         <v>0.46</v>
@@ -8096,7 +8137,7 @@
         <v>0.51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6">
         <v>0.43</v>
@@ -8117,7 +8158,7 @@
         <v>0.47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6">
         <v>0.43</v>
@@ -17154,41 +17195,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8">
-        <v>44816.0</v>
+        <v>44818.0</v>
       </c>
       <c r="B2" s="9">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>48.0</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8">
-        <v>44816.0</v>
+        <v>44818.0</v>
       </c>
       <c r="B3" s="9">
-        <v>41.0</v>
+        <v>42.5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>37.0</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="4">
@@ -17213,7 +17254,7 @@
         <v>43.7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>38.0</v>
@@ -17241,7 +17282,7 @@
         <v>44.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>39.5</v>
@@ -17269,7 +17310,7 @@
         <v>47.0</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>41.3</v>
@@ -17297,7 +17338,7 @@
         <v>47.3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1">
         <v>42.7</v>
@@ -17325,7 +17366,7 @@
         <v>44.5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1">
         <v>42.0</v>
@@ -17353,7 +17394,7 @@
         <v>45.5</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1">
         <v>41.5</v>

--- a/Gender2022.xlsx
+++ b/Gender2022.xlsx
@@ -13,12 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Share</t>
+    <t>Women</t>
   </si>
   <si>
     <t>Party</t>
@@ -42,22 +42,22 @@
     <t>Democrats</t>
   </si>
   <si>
-    <t>NYT</t>
+    <t xml:space="preserve">Echelon </t>
   </si>
   <si>
     <t>Republican</t>
   </si>
   <si>
+    <t>Echelon</t>
+  </si>
+  <si>
+    <t>NYT</t>
+  </si>
+  <si>
     <t>FoxNews</t>
   </si>
   <si>
-    <t>Echelon</t>
-  </si>
-  <si>
     <t>Monmouth</t>
-  </si>
-  <si>
-    <t>Women</t>
   </si>
   <si>
     <t>McA_You</t>
@@ -79,8 +79,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -125,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -151,7 +152,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -161,6 +162,9 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -415,10 +419,10 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>44818.0</v>
+        <v>44823.0</v>
       </c>
       <c r="B2" s="1">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -427,23 +431,23 @@
         <v>9</v>
       </c>
       <c r="E2" s="1">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
-        <v>44818.0</v>
+        <v>44823.0</v>
       </c>
       <c r="B3" s="1">
-        <v>40.0</v>
+        <v>38.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1">
         <v>44.0</v>
@@ -453,86 +457,86 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>44816.0</v>
+        <v>44818.0</v>
       </c>
       <c r="B4" s="1">
-        <v>48.0</v>
+        <v>53.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>44816.0</v>
+        <v>44818.0</v>
       </c>
       <c r="B5" s="1">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>44795.0</v>
+        <v>44816.0</v>
       </c>
       <c r="B6" s="1">
-        <v>51.0</v>
+        <v>48.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>44795.0</v>
+        <v>44816.0</v>
       </c>
       <c r="B7" s="1">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>44782.0</v>
+        <v>44795.0</v>
       </c>
       <c r="B8" s="1">
-        <v>45.0</v>
+        <v>51.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -541,22 +545,14 @@
         <v>11</v>
       </c>
       <c r="E8" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" ref="F8:F9" si="1">AVERAGE(B8,B10)</f>
-        <v>46</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45.0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>46.0</v>
-      </c>
+        <v>48.0</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>44782.0</v>
+        <v>44795.0</v>
       </c>
       <c r="B9" s="1">
         <v>39.0</v>
@@ -568,105 +564,113 @@
         <v>11</v>
       </c>
       <c r="E9" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>44782.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1">
         <v>41.0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
+        <f t="shared" ref="F10:F11" si="1">AVERAGE(B10,B12)</f>
+        <v>46</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>44782.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G11" s="2">
         <v>43.5</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H11" s="2">
         <v>38.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3">
+    <row r="12">
+      <c r="A12" s="3">
         <v>44776.0</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B12" s="1">
         <v>47.0</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
         <v>49.0</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" ref="F10:F11" si="2">AVERAGE(B10,B14)</f>
+      <c r="F12" s="4">
+        <f t="shared" ref="F12:F13" si="2">AVERAGE(B12,B16)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3">
+    <row r="13">
+      <c r="A13" s="3">
         <v>44776.0</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B13" s="1">
         <v>37.0</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1">
         <v>46.0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F13" s="4">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>44760.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>44760.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>44755.0</v>
+        <v>44760.0</v>
       </c>
       <c r="B14" s="1">
-        <v>43.0</v>
+        <v>54.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -675,25 +679,17 @@
         <v>11</v>
       </c>
       <c r="E14" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" ref="F14:F15" si="3">AVERAGE(B14,B16)</f>
-        <v>48</v>
-      </c>
-      <c r="G14" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>43.0</v>
-      </c>
+        <v>48.0</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>44755.0</v>
+        <v>44760.0</v>
       </c>
       <c r="B15" s="1">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -704,108 +700,120 @@
       <c r="E15" s="1">
         <v>44.0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>44755.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" ref="F16:F17" si="3">AVERAGE(B16,B18)</f>
+        <v>48</v>
+      </c>
+      <c r="G16" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>44755.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G17" s="2">
         <v>43.0</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H17" s="2">
         <v>41.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3">
+    <row r="18">
+      <c r="A18" s="3">
         <v>44739.0</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B18" s="1">
         <v>53.0</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
         <v>46.0</v>
       </c>
-      <c r="F16" s="4">
-        <f t="shared" ref="F16:F17" si="4">AVERAGE(B16,B20)</f>
+      <c r="F18" s="4">
+        <f t="shared" ref="F18:F19" si="4">AVERAGE(B18,B22)</f>
         <v>51.5</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G18" s="2">
         <v>45.0</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H18" s="2">
         <v>51.5</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3">
+    <row r="19">
+      <c r="A19" s="3">
         <v>44739.0</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B19" s="1">
         <v>39.0</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1">
         <v>48.0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F19" s="4">
         <f t="shared" si="4"/>
         <v>40.5</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G19" s="2">
         <v>47.5</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H19" s="2">
         <v>40.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3">
-        <v>44732.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3">
-        <v>44732.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1">
-        <v>46.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>44725.0</v>
+        <v>44732.0</v>
       </c>
       <c r="B20" s="1">
         <v>50.0</v>
@@ -817,19 +825,15 @@
         <v>11</v>
       </c>
       <c r="E20" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" ref="F20:F21" si="5">AVERAGE(B20,B24)</f>
-        <v>50</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>44725.0</v>
+        <v>44732.0</v>
       </c>
       <c r="B21" s="1">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
@@ -838,344 +842,368 @@
         <v>11</v>
       </c>
       <c r="E21" s="1">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3">
+        <v>44725.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" ref="F22:F23" si="5">AVERAGE(B22,B26)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3">
+        <v>44725.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1">
         <v>47.0</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F23" s="4">
         <f t="shared" si="5"/>
         <v>43.5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3">
-        <v>44704.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3">
-        <v>44704.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>44690.0</v>
+        <v>44704.0</v>
       </c>
       <c r="B24" s="1">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" ref="F24:F33" si="6">AVERAGE(B24,B26)</f>
-        <v>46</v>
-      </c>
-      <c r="G24" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>46.0</v>
-      </c>
+        <v>45.0</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>44690.0</v>
+        <v>44704.0</v>
       </c>
       <c r="B25" s="1">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3">
+        <v>44690.0</v>
+      </c>
+      <c r="B26" s="1">
         <v>50.0</v>
       </c>
-      <c r="F25" s="4">
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" ref="F26:F35" si="6">AVERAGE(B26,B28)</f>
+        <v>46</v>
+      </c>
+      <c r="G26" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3">
+        <v>44690.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F27" s="4">
         <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G27" s="2">
         <v>48.0</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H27" s="2">
         <v>44.0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3">
+    <row r="28">
+      <c r="A28" s="3">
         <v>44682.0</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B28" s="1">
         <v>42.0</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1">
         <v>39.0</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F28" s="4">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3">
+    <row r="29">
+      <c r="A29" s="3">
         <v>44682.0</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B29" s="1">
         <v>43.0</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1">
         <v>46.0</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F29" s="4">
         <f t="shared" si="6"/>
         <v>42.5</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3">
+    <row r="30">
+      <c r="A30" s="3">
         <v>44641.0</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B30" s="1">
         <v>42.0</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1">
         <v>41.0</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F30" s="4">
         <f t="shared" si="6"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3">
+    <row r="31">
+      <c r="A31" s="3">
         <v>44641.0</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B31" s="1">
         <v>42.0</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1">
         <v>43.0</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F31" s="4">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3">
+    <row r="32">
+      <c r="A32" s="3">
         <v>44634.0</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B32" s="1">
         <v>53.0</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1">
         <v>46.0</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F32" s="4">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G32" s="2">
         <v>43.5</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H32" s="2">
         <v>47.5</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3">
+    <row r="33">
+      <c r="A33" s="3">
         <v>44634.0</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B33" s="1">
         <v>42.0</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1">
         <v>46.0</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F33" s="4">
         <f t="shared" si="6"/>
         <v>43.5</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G33" s="2">
         <v>44.5</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H33" s="2">
         <v>42.0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3">
+    <row r="34">
+      <c r="A34" s="3">
         <v>44585.0</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B34" s="1">
         <v>47.0</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1">
         <v>43.0</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F34" s="4">
         <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G34" s="2">
         <v>43.0</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H34" s="2">
         <v>47.0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3">
+    <row r="35">
+      <c r="A35" s="3">
         <v>44585.0</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B35" s="1">
         <v>45.0</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1">
         <v>50.0</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F35" s="4">
         <f t="shared" si="6"/>
         <v>41.5</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G35" s="2">
         <v>50.0</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H35" s="2">
         <v>45.0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3">
+    <row r="36">
+      <c r="A36" s="3">
         <v>44584.0</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B36" s="1">
         <v>47.0</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1">
         <v>46.0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="3">
+    <row r="37">
+      <c r="A37" s="3">
         <v>44584.0</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B37" s="1">
         <v>38.0</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1">
         <v>41.0</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="5"/>
@@ -8029,6 +8057,20 @@
       <c r="C1016" s="5"/>
       <c r="D1016" s="5"/>
       <c r="E1016" s="5"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="5"/>
+      <c r="B1017" s="5"/>
+      <c r="C1017" s="5"/>
+      <c r="D1017" s="5"/>
+      <c r="E1017" s="5"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="5"/>
+      <c r="B1018" s="5"/>
+      <c r="C1018" s="5"/>
+      <c r="D1018" s="5"/>
+      <c r="E1018" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8050,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -17201,35 +17243,35 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8">
-        <v>44818.0</v>
+        <v>44823.0</v>
       </c>
       <c r="B2" s="9">
-        <v>45.0</v>
+        <v>0.463</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>50.5</v>
+      <c r="D2" s="6">
+        <v>0.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8">
-        <v>44818.0</v>
+        <v>44823.0</v>
       </c>
       <c r="B3" s="9">
-        <v>42.5</v>
+        <v>0.43</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1">
-        <v>38.5</v>
+      <c r="D3" s="6">
+        <v>0.383</v>
       </c>
     </row>
     <row r="4">
@@ -17237,13 +17279,13 @@
         <v>44795.0</v>
       </c>
       <c r="B4" s="9">
-        <v>46.0</v>
+        <v>0.46</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>47.7</v>
+      <c r="D4" s="6">
+        <v>0.477</v>
       </c>
     </row>
     <row r="5">
@@ -17251,13 +17293,13 @@
         <v>44795.0</v>
       </c>
       <c r="B5" s="9">
-        <v>43.7</v>
+        <v>0.437</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1">
-        <v>38.0</v>
+      <c r="D5" s="6">
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -17265,13 +17307,13 @@
         <v>44760.0</v>
       </c>
       <c r="B6" s="9">
-        <v>44.5</v>
+        <v>0.445</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
-        <v>48.5</v>
+      <c r="D6" s="6">
+        <v>0.485</v>
       </c>
     </row>
     <row r="7">
@@ -17279,13 +17321,13 @@
         <v>44760.0</v>
       </c>
       <c r="B7" s="9">
-        <v>44.0</v>
+        <v>0.44</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1">
-        <v>39.5</v>
+      <c r="D7" s="6">
+        <v>0.395</v>
       </c>
     </row>
     <row r="8">
@@ -17293,13 +17335,13 @@
         <v>44739.0</v>
       </c>
       <c r="B8" s="9">
-        <v>45.7</v>
+        <v>0.457</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
-        <v>51.0</v>
+      <c r="D8" s="6">
+        <v>0.51</v>
       </c>
     </row>
     <row r="9">
@@ -17307,13 +17349,13 @@
         <v>44739.0</v>
       </c>
       <c r="B9" s="9">
-        <v>47.0</v>
+        <v>0.47</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1">
-        <v>41.3</v>
+      <c r="D9" s="6">
+        <v>0.413</v>
       </c>
     </row>
     <row r="10">
@@ -17321,13 +17363,13 @@
         <v>44704.0</v>
       </c>
       <c r="B10" s="9">
-        <v>42.3</v>
+        <v>0.423</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
-        <v>47.0</v>
+      <c r="D10" s="6">
+        <v>0.47</v>
       </c>
     </row>
     <row r="11">
@@ -17335,41 +17377,41 @@
         <v>44704.0</v>
       </c>
       <c r="B11" s="9">
-        <v>47.3</v>
+        <v>0.473</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1">
-        <v>42.7</v>
+      <c r="D11" s="6">
+        <v>0.427</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11">
         <v>44641.0</v>
       </c>
-      <c r="B12" s="1">
-        <v>43.5</v>
+      <c r="B12" s="13">
+        <v>0.435</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1">
-        <v>47.5</v>
+      <c r="D12" s="6">
+        <v>0.475</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11">
         <v>44641.0</v>
       </c>
-      <c r="B13" s="1">
-        <v>44.5</v>
+      <c r="B13" s="13">
+        <v>0.445</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1">
-        <v>42.0</v>
+      <c r="D13" s="6">
+        <v>0.42</v>
       </c>
     </row>
     <row r="14">
@@ -17377,13 +17419,13 @@
         <v>44585.0</v>
       </c>
       <c r="B14" s="9">
-        <v>44.5</v>
+        <v>0.445</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1">
-        <v>47.0</v>
+      <c r="D14" s="6">
+        <v>0.47</v>
       </c>
     </row>
     <row r="15">
@@ -17391,13 +17433,13 @@
         <v>44585.0</v>
       </c>
       <c r="B15" s="9">
-        <v>45.5</v>
+        <v>0.455</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1">
-        <v>41.5</v>
+      <c r="D15" s="6">
+        <v>0.415</v>
       </c>
     </row>
     <row r="16">
